--- a/CBIG_ME_TheoreticalModel_Params.xlsx
+++ b/CBIG_ME_TheoreticalModel_Params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neurojojo/Desktop/ORSP_Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EB470-AB6F-444C-B6CF-F72263CC2D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4F98AB-6C42-6245-BD97-CEC621F7DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,29 +16,9 @@
     <sheet name="Theoretical Model Params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Theoretical Model Params'!$G$2:$G$124</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Theoretical Model Params'!$G$2:$G$124</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Theoretical Model Params'!$G$2:$G$124</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Theoretical Model Params'!$E$2:$E$124</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Theoretical Model Params'!$F$2:$F$124</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Theoretical Model Params'!$G$2:$G$124</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -71,9 +51,6 @@
     <t>ABCD (rest)</t>
   </si>
   <si>
-    <t>original</t>
-  </si>
-  <si>
     <t>Social Problems</t>
   </si>
   <si>
@@ -320,21 +297,12 @@
     <t>ABCD (SST)</t>
   </si>
   <si>
-    <t>randomized</t>
-  </si>
-  <si>
-    <t>subcortical</t>
-  </si>
-  <si>
     <t>Contrast Sensitivity</t>
   </si>
   <si>
     <t>Friendship</t>
   </si>
   <si>
-    <t>1000 parcels</t>
-  </si>
-  <si>
     <t>Visuospatial Reaction Time</t>
   </si>
   <si>
@@ -357,6 +325,18 @@
   </si>
   <si>
     <t>Walking Endurance</t>
+  </si>
+  <si>
+    <t>whole brain, original</t>
+  </si>
+  <si>
+    <t>whole brain, randomized</t>
+  </si>
+  <si>
+    <t>subcortex-cortex, original</t>
+  </si>
+  <si>
+    <t>whole brain, high resolution, original</t>
   </si>
 </sst>
 </file>
@@ -444,7 +424,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -639,7 +619,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -854,7 +834,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2786,8 +2766,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7635536" y="629641"/>
-              <a:ext cx="8644782" cy="5029200"/>
+              <a:off x="7619593" y="633694"/>
+              <a:ext cx="8613168" cy="5064328"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2864,8 +2844,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7682889" y="6181243"/>
-              <a:ext cx="8626365" cy="4882052"/>
+              <a:off x="7683636" y="6304508"/>
+              <a:ext cx="8636077" cy="4979169"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2942,8 +2922,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7670998" y="11561612"/>
-              <a:ext cx="8599753" cy="4964826"/>
+              <a:off x="7671745" y="11789465"/>
+              <a:ext cx="8609465" cy="5065679"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3263,13 +3243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="34" workbookViewId="0">
-      <selection activeCell="AF53" sqref="AF53"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3301,13 +3281,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>0.13652620225630399</v>
@@ -3324,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0.14964051788820371</v>
@@ -3347,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0.17514697182807609</v>
@@ -3370,13 +3350,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.45363480500669889</v>
@@ -3393,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0.42036093484368892</v>
@@ -3416,13 +3396,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0.2209254807733155</v>
@@ -3439,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0.25008540449016697</v>
@@ -3462,13 +3442,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0.41813165615100301</v>
@@ -3485,13 +3465,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0.37811042313531462</v>
@@ -3508,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0.50061179418304547</v>
@@ -3531,13 +3511,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0.48573899193220771</v>
@@ -3554,13 +3534,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0.16721637261638131</v>
@@ -3577,13 +3557,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0.20715029003518121</v>
@@ -3600,13 +3580,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0.21123124351842951</v>
@@ -3623,13 +3603,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0.36038791548076332</v>
@@ -3646,13 +3626,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0.30800704772869691</v>
@@ -3669,13 +3649,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0.50494621008249707</v>
@@ -3689,16 +3669,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0.26407538097189631</v>
@@ -3712,16 +3692,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0.19088155209516519</v>
@@ -3735,16 +3715,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0.39745945458182058</v>
@@ -3758,16 +3738,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0.50101765126282194</v>
@@ -3781,16 +3761,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0.54880809809893127</v>
@@ -3804,16 +3784,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0.235656131712461</v>
@@ -3827,16 +3807,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
         <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
       </c>
       <c r="E25">
         <v>0.32170782736624493</v>
@@ -3850,16 +3830,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0.53710798716263863</v>
@@ -3873,16 +3853,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0.12109189505583599</v>
@@ -3896,16 +3876,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
       </c>
       <c r="E28">
         <v>0.26446021619712651</v>
@@ -3919,16 +3899,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
       </c>
       <c r="E29">
         <v>0.15328312939278871</v>
@@ -3942,16 +3922,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0.33292493121084049</v>
@@ -3965,16 +3945,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0.4560753597945858</v>
@@ -3988,16 +3968,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0.39038969736586732</v>
@@ -4011,16 +3991,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0.30954867272478692</v>
@@ -4034,16 +4014,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>0.26714405084659931</v>
@@ -4057,16 +4037,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0.26998526087410762</v>
@@ -4080,16 +4060,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
         <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
       </c>
       <c r="E36">
         <v>0.29665881778474462</v>
@@ -4103,16 +4083,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0.61999739690167044</v>
@@ -4126,16 +4106,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>0.62339320122887709</v>
@@ -4149,16 +4129,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0.3408007039048046</v>
@@ -4172,16 +4152,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>0.46750253873560471</v>
@@ -4195,16 +4175,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0.68751009351436188</v>
@@ -4218,16 +4198,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42">
         <v>0.72218269087980891</v>
@@ -4241,16 +4221,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>0.15746993507028931</v>
@@ -4264,16 +4244,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>0.31362837941008942</v>
@@ -4287,16 +4267,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0.36580555615623073</v>
@@ -4310,16 +4290,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>0.20341157416334721</v>
@@ -4333,16 +4313,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0.33528029530317471</v>
@@ -4356,16 +4336,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0.30477952993345692</v>
@@ -4379,16 +4359,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0.32094267108480112</v>
@@ -4402,16 +4382,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0.57501051434138084</v>
@@ -4425,16 +4405,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>0.54477984174521554</v>
@@ -4448,16 +4428,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>0.81354273727783266</v>
@@ -4471,16 +4451,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
         <v>64</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>0.37450650028210808</v>
@@ -4494,16 +4474,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>0.2082117074423164</v>
@@ -4517,16 +4497,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>0.6931066116594673</v>
@@ -4540,16 +4520,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <v>0.33794316135143138</v>
@@ -4563,16 +4543,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57">
         <v>0.31403790117562652</v>
@@ -4586,16 +4566,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58">
         <v>0.98192802993980999</v>
@@ -4609,16 +4589,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>0.79784400071635941</v>
@@ -4632,16 +4612,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>0.36172281147441943</v>
@@ -4655,16 +4635,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <v>0.31391369391485219</v>
@@ -4678,16 +4658,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62">
         <v>0.33404116681291862</v>
@@ -4701,16 +4681,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <v>0.48372788366491642</v>
@@ -4724,16 +4704,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64">
         <v>0.51188444986134063</v>
@@ -4747,16 +4727,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <v>0.540668620336901</v>
@@ -4770,16 +4750,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>0.57043054729719567</v>
@@ -4793,16 +4773,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67">
         <v>0.37944317453687859</v>
@@ -4816,16 +4796,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <v>0.44952519971729871</v>
@@ -4839,16 +4819,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69">
         <v>0.43787385619797942</v>
@@ -4862,16 +4842,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
         <v>79</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
       </c>
       <c r="E70">
         <v>0.44875028458816157</v>
@@ -4885,16 +4865,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <v>0.53271441711813383</v>
@@ -4908,16 +4888,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>0.45415636468513459</v>
@@ -4931,16 +4911,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <v>0.22841382598595791</v>
@@ -4954,16 +4934,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74">
         <v>0.29359680006065242</v>
@@ -4977,16 +4957,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75">
         <v>0.31935534743466287</v>
@@ -5000,16 +4980,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <v>0.31211884140188167</v>
@@ -5023,16 +5003,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77">
         <v>0.4544397927779969</v>
@@ -5046,16 +5026,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>0.39503055915700158</v>
@@ -5069,16 +5049,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0.5200786241745019</v>
@@ -5092,16 +5072,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80">
         <v>0.49521848401506341</v>
@@ -5115,16 +5095,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81">
         <v>0.18464678835908321</v>
@@ -5138,16 +5118,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <v>0.26111039147570753</v>
@@ -5161,16 +5141,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83">
         <v>0.24832358580638189</v>
@@ -5184,16 +5164,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84">
         <v>0.37269781109821543</v>
@@ -5207,16 +5187,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85">
         <v>0.27183782356794212</v>
@@ -5230,16 +5210,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <v>0.2425726540130127</v>
@@ -5253,16 +5233,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87">
         <v>0.5280872344861629</v>
@@ -5276,16 +5256,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>0.18722723663677091</v>
@@ -5299,16 +5279,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89">
         <v>0.43584512140485071</v>
@@ -5322,16 +5302,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <v>0.23475356000530639</v>
@@ -5345,16 +5325,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91">
         <v>0.29972951105651591</v>
@@ -5368,16 +5348,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>0.3064819927821264</v>
@@ -5391,16 +5371,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93">
         <v>0.29124336507833998</v>
@@ -5414,16 +5394,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94">
         <v>0.38648996533404328</v>
@@ -5437,16 +5417,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>0.40608002573850421</v>
@@ -5460,16 +5440,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96">
         <v>0.4639972973918377</v>
@@ -5483,16 +5463,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97">
         <v>0.48589180890573658</v>
@@ -5506,16 +5486,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
         <v>86</v>
       </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
       <c r="D98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E98">
         <v>0.13736804867231231</v>
@@ -5529,16 +5509,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99">
         <v>0.1834861517241699</v>
@@ -5552,16 +5532,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <v>0.1840628748192264</v>
@@ -5575,16 +5555,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101">
         <v>0.30206820220490788</v>
@@ -5598,16 +5578,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102">
         <v>0.28780650832797511</v>
@@ -5621,16 +5601,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103">
         <v>0.38161615589897119</v>
@@ -5644,16 +5624,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104">
         <v>0.30538357166199182</v>
@@ -5667,16 +5647,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E105">
         <v>0.28165582759183228</v>
@@ -5690,16 +5670,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <v>0.52752236706791178</v>
@@ -5713,16 +5693,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107">
         <v>0.167793478024788</v>
@@ -5736,16 +5716,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108">
         <v>0.39734099150397167</v>
@@ -5759,16 +5739,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109">
         <v>0.2180723663183545</v>
@@ -5782,16 +5762,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E110">
         <v>0.30228071070664592</v>
@@ -5805,16 +5785,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <v>0.26828650636919238</v>
@@ -5828,16 +5808,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112">
         <v>0.37186150298942761</v>
@@ -5851,16 +5831,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113">
         <v>0.37469183881833168</v>
@@ -5874,16 +5854,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114">
         <v>0.43369990822412918</v>
@@ -5897,16 +5877,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>0.40154384395232068</v>
@@ -5920,16 +5900,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E116">
         <v>0.12991517375509851</v>
@@ -5943,16 +5923,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117">
         <v>0.19902668456966299</v>
@@ -5966,16 +5946,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118">
         <v>0.18402530034574061</v>
@@ -5989,16 +5969,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119">
         <v>0.24716821979645279</v>
@@ -6012,16 +5992,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E120">
         <v>0.19062022239014759</v>
@@ -6035,16 +6015,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E121">
         <v>0.33667170733698959</v>
@@ -6058,16 +6038,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122">
         <v>0.32553378244371178</v>
@@ -6081,16 +6061,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E123">
         <v>0.29607725156492892</v>
@@ -6104,16 +6084,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E124">
         <v>0.44491985083957958</v>
@@ -6130,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
         <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
       </c>
       <c r="E125">
         <v>0.1411865106900223</v>
@@ -6153,13 +6133,13 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126">
         <v>0.14220551350831259</v>
@@ -6176,13 +6156,13 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127">
         <v>0.16632888393193929</v>
@@ -6199,13 +6179,13 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E128">
         <v>0.45090249058819343</v>
@@ -6222,13 +6202,13 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E129">
         <v>0.40195666351836501</v>
@@ -6245,13 +6225,13 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E130">
         <v>0.21603425313809829</v>
@@ -6268,13 +6248,13 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131">
         <v>0.26655975571614021</v>
@@ -6291,13 +6271,13 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E132">
         <v>0.41681316207337921</v>
@@ -6314,13 +6294,13 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E133">
         <v>0.36738359412145949</v>
@@ -6337,13 +6317,13 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E134">
         <v>0.50321939176748609</v>
@@ -6360,13 +6340,13 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135">
         <v>0.48108604937665411</v>
@@ -6383,13 +6363,13 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136">
         <v>0.16006872578063461</v>
@@ -6406,13 +6386,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137">
         <v>0.2231506107656526</v>
@@ -6429,13 +6409,13 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138">
         <v>0.22942479386691891</v>
@@ -6452,13 +6432,13 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139">
         <v>0.36520471221647072</v>
@@ -6475,13 +6455,13 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140">
         <v>0.29307261003026952</v>
@@ -6498,13 +6478,13 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E141">
         <v>0.51370028676284329</v>
@@ -6518,16 +6498,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142" t="s">
         <v>28</v>
       </c>
-      <c r="B142" t="s">
-        <v>91</v>
-      </c>
-      <c r="C142" t="s">
-        <v>29</v>
-      </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142">
         <v>0.2349432358162292</v>
@@ -6541,16 +6521,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143">
         <v>0.13896228838661259</v>
@@ -6564,16 +6544,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E144">
         <v>0.41208778503178239</v>
@@ -6587,16 +6567,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E145">
         <v>0.49542678163673087</v>
@@ -6610,16 +6590,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E146">
         <v>0.53913594124240605</v>
@@ -6633,16 +6613,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E147">
         <v>0.2347170863749766</v>
@@ -6656,16 +6636,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C148" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
         <v>33</v>
-      </c>
-      <c r="D148" t="s">
-        <v>34</v>
       </c>
       <c r="E148">
         <v>0.31858691310002141</v>
@@ -6679,16 +6659,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E149">
         <v>0.41874972955502548</v>
@@ -6702,16 +6682,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E150">
         <v>0.18082350771419881</v>
@@ -6725,16 +6705,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" t="s">
         <v>37</v>
-      </c>
-      <c r="D151" t="s">
-        <v>38</v>
       </c>
       <c r="E151">
         <v>0.19767960095692991</v>
@@ -6748,16 +6728,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
         <v>39</v>
-      </c>
-      <c r="D152" t="s">
-        <v>40</v>
       </c>
       <c r="E152">
         <v>0.17877831926590701</v>
@@ -6771,16 +6751,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E153">
         <v>0.33427836362958657</v>
@@ -6794,16 +6774,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E154">
         <v>0.46541456018882338</v>
@@ -6817,16 +6797,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155">
         <v>0.3745617757683003</v>
@@ -6840,16 +6820,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E156">
         <v>0.34512363649210798</v>
@@ -6863,16 +6843,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E157">
         <v>0.213867954866239</v>
@@ -6886,16 +6866,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E158">
         <v>0.1824500168989294</v>
@@ -6909,16 +6889,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" t="s">
         <v>47</v>
-      </c>
-      <c r="D159" t="s">
-        <v>48</v>
       </c>
       <c r="E159">
         <v>0.2304728433231252</v>
@@ -6932,16 +6912,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E160">
         <v>0.60938110399428491</v>
@@ -6958,13 +6938,13 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161">
         <v>0.15865348510127669</v>
@@ -6981,13 +6961,13 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E162">
         <v>0.33039697999420031</v>
@@ -7004,13 +6984,13 @@
         <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163">
         <v>0.32064190801911141</v>
@@ -7027,13 +7007,13 @@
         <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E164">
         <v>0.15526082572725489</v>
@@ -7050,13 +7030,13 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E165">
         <v>0.27870768628449127</v>
@@ -7073,13 +7053,13 @@
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E166">
         <v>0.28991976396373198</v>
@@ -7096,13 +7076,13 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E167">
         <v>0.36215997872487332</v>
@@ -7119,13 +7099,13 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E168">
         <v>0.3700733816671411</v>
@@ -7142,13 +7122,13 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E169">
         <v>0.20555118916063589</v>
@@ -7165,13 +7145,13 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170">
         <v>0.16066545566074969</v>
@@ -7188,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E171">
         <v>0.16624709252545</v>
@@ -7211,13 +7191,13 @@
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E172">
         <v>0.26008196433061748</v>
@@ -7234,13 +7214,13 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E173">
         <v>0.19940347611595879</v>
@@ -7257,13 +7237,13 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E174">
         <v>0.3951973034934117</v>
@@ -7277,16 +7257,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" t="s">
         <v>28</v>
       </c>
-      <c r="B175" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" t="s">
-        <v>29</v>
-      </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>0.26284095380693168</v>
@@ -7300,16 +7280,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E176">
         <v>0.26161851882820691</v>
@@ -7323,16 +7303,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E177">
         <v>0.43488755094802939</v>
@@ -7346,16 +7326,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E178">
         <v>0.42432198572259971</v>
@@ -7369,16 +7349,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" t="s">
         <v>33</v>
-      </c>
-      <c r="D179" t="s">
-        <v>34</v>
       </c>
       <c r="E179">
         <v>0.27092549714577768</v>
@@ -7392,16 +7372,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E180">
         <v>0.30757947563125998</v>
@@ -7415,16 +7395,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C181" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" t="s">
         <v>37</v>
-      </c>
-      <c r="D181" t="s">
-        <v>38</v>
       </c>
       <c r="E181">
         <v>9.8184926073307088E-2</v>
@@ -7438,16 +7418,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C182" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E182">
         <v>0.1250512303688516</v>
@@ -7461,16 +7441,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E183">
         <v>0.27924456552452648</v>
@@ -7484,16 +7464,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E184">
         <v>0.29683955105759308</v>
@@ -7507,16 +7487,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E185">
         <v>0.2276045869061146</v>
@@ -7530,16 +7510,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C186" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E186">
         <v>0.17051450323819581</v>
@@ -7553,16 +7533,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E187">
         <v>0.50352223875891289</v>
@@ -7579,13 +7559,13 @@
         <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188">
         <v>0.14504398737151919</v>
@@ -7602,13 +7582,13 @@
         <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189">
         <v>0.1646852406706904</v>
@@ -7625,13 +7605,13 @@
         <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E190">
         <v>0.45565198670452411</v>
@@ -7648,13 +7628,13 @@
         <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191">
         <v>0.22420292268976641</v>
@@ -7671,13 +7651,13 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E192">
         <v>0.42174331079507049</v>
@@ -7694,13 +7674,13 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E193">
         <v>0.2353476099290962</v>
@@ -7717,13 +7697,13 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E194">
         <v>0.24326396278146359</v>
@@ -7740,13 +7720,13 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E195">
         <v>0.44567884185308221</v>
@@ -7763,13 +7743,13 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E196">
         <v>0.38991636423792592</v>
@@ -7786,13 +7766,13 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E197">
         <v>0.51608985543736441</v>
@@ -7809,13 +7789,13 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E198">
         <v>0.49614722283629598</v>
@@ -7832,13 +7812,13 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199">
         <v>0.15151194560098061</v>
@@ -7855,13 +7835,13 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E200">
         <v>0.20645637291078961</v>
@@ -7878,13 +7858,13 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E201">
         <v>0.21620999721266729</v>
@@ -7901,13 +7881,13 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E202">
         <v>0.3697943647739857</v>
@@ -7924,13 +7904,13 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E203">
         <v>0.30611235290680211</v>
@@ -7947,13 +7927,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E204">
         <v>0.1213511002293346</v>
@@ -7970,13 +7950,13 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E205">
         <v>0.52002430338445982</v>
@@ -7990,16 +7970,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" t="s">
         <v>28</v>
       </c>
-      <c r="B206" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" t="s">
-        <v>29</v>
-      </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E206">
         <v>0.2553831172779083</v>
@@ -8013,16 +7993,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E207">
         <v>0.2480418306592001</v>
@@ -8036,16 +8016,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208">
         <v>0.45076354822086251</v>
@@ -8059,16 +8039,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E209">
         <v>0.50285585362783147</v>
@@ -8082,16 +8062,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E210">
         <v>0.5190061830844126</v>
@@ -8105,16 +8085,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E211">
         <v>0.23071169000717651</v>
@@ -8128,16 +8108,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C212" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" t="s">
         <v>33</v>
-      </c>
-      <c r="D212" t="s">
-        <v>34</v>
       </c>
       <c r="E212">
         <v>0.33997174887574139</v>
@@ -8151,16 +8131,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E213">
         <v>0.57932078318889857</v>
@@ -8174,16 +8154,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E214">
         <v>0.12240098454562739</v>
@@ -8197,16 +8177,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C215" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>0.36043693845736879</v>
@@ -8220,16 +8200,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216" t="s">
         <v>37</v>
-      </c>
-      <c r="D216" t="s">
-        <v>38</v>
       </c>
       <c r="E216">
         <v>0.27931802407302209</v>
@@ -8243,16 +8223,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C217" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E217">
         <v>0.1466665852150249</v>
@@ -8266,16 +8246,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C218" t="s">
         <v>95</v>
       </c>
-      <c r="C218" t="s">
-        <v>99</v>
-      </c>
       <c r="D218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E218">
         <v>0.1197847725706772</v>
@@ -8289,16 +8269,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B219" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C219" t="s">
+        <v>38</v>
+      </c>
+      <c r="D219" t="s">
         <v>39</v>
-      </c>
-      <c r="D219" t="s">
-        <v>40</v>
       </c>
       <c r="E219">
         <v>0.16210453200537131</v>
@@ -8312,16 +8292,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B220" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C220" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E220">
         <v>0.23170385941835259</v>
@@ -8335,16 +8315,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E221">
         <v>0.32649661962687421</v>
@@ -8358,16 +8338,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E222">
         <v>0.49465535111871128</v>
@@ -8381,16 +8361,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E223">
         <v>0.3693267402270507</v>
@@ -8404,16 +8384,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E224">
         <v>0.28357048740185931</v>
@@ -8427,16 +8407,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E225">
         <v>0.26593500421047128</v>
@@ -8450,16 +8430,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E226">
         <v>0.26458919312274959</v>
@@ -8473,16 +8453,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C227" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E227">
         <v>8.4340012617534224E-2</v>
@@ -8496,16 +8476,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C228" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" t="s">
         <v>47</v>
-      </c>
-      <c r="D228" t="s">
-        <v>48</v>
       </c>
       <c r="E228">
         <v>0.30355728565848272</v>
@@ -8519,16 +8499,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E229">
         <v>0.61662230968176779</v>
@@ -8542,16 +8522,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" t="s">
+        <v>98</v>
+      </c>
+      <c r="C230" t="s">
         <v>28</v>
       </c>
-      <c r="B230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C230" t="s">
-        <v>29</v>
-      </c>
       <c r="D230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E230">
         <v>0.13644061993005741</v>
@@ -8565,16 +8545,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E231">
         <v>0.41917686005164262</v>
@@ -8588,16 +8568,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B232" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E232">
         <v>0.49165020482451172</v>
@@ -8611,16 +8591,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B233" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C233" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" t="s">
         <v>33</v>
-      </c>
-      <c r="D233" t="s">
-        <v>34</v>
       </c>
       <c r="E233">
         <v>0.33163322421927549</v>
@@ -8634,16 +8614,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B234" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E234">
         <v>0.33066366521969998</v>
@@ -8657,16 +8637,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E235">
         <v>8.7516841946605473E-2</v>
@@ -8680,16 +8660,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B236" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C236" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E236">
         <v>0.15225943328503669</v>
@@ -8703,16 +8683,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B237" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C237" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" t="s">
         <v>37</v>
-      </c>
-      <c r="D237" t="s">
-        <v>38</v>
       </c>
       <c r="E237">
         <v>0.16822951226226271</v>
@@ -8726,16 +8706,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C238" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E238">
         <v>0.24846817216652489</v>
@@ -8749,16 +8729,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C239" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E239">
         <v>0.11534414517420059</v>
@@ -8772,16 +8752,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E240">
         <v>0.31255531608908699</v>
@@ -8795,16 +8775,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E241">
         <v>0.51159911495096988</v>
@@ -8818,16 +8798,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E242">
         <v>0.37214510765163561</v>
@@ -8841,16 +8821,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E243">
         <v>0.27357555269379408</v>
@@ -8864,16 +8844,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E244">
         <v>0.1634346181086693</v>
@@ -8887,16 +8867,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B245" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E245">
         <v>0.57773937676353337</v>
